--- a/Testdata/TC_146.xlsx
+++ b/Testdata/TC_146.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>WCkAAB+LCAAAAAAAAAPtWltvG8cV/isLAgYSINTukpJFEeMNeJFswqQkiHRt5yVY7o7EqZa77M6sJL65KAK7bRKgcJPUzaVNkbRNUdsBnKZu7ebHBCYtPfkv9MzMXknKJh0HaQMbhLxzbnPmzJlzvr2g14/6jnKAfUo891xOX9JyCnYtzybu3rlcwHbz+tnc6wZaP7Kws236Zh8zEFZAy6XlI0rO5XqMDcqqenh4uHRYXPL8PbWgabp6pdVsWz3cN/PEpcx0LZyLtexna+UMVLP7LcxM22Sm1DyXa7QbSzVMrDrQWqZr7mF/qRpQ4mJK111GGMGUa/rYZLhWb/1ELswoLJ1d0pE6RU8kqwFxbCmXkZT0UA6mxR3Sx0ZB00t5bS2vFTu6Xi5oZW11qVDU3ogUY0HUNClrY/+AWILQZmZ/INS1Na2o67DoVaTOFAJbSQAMtOXYO/iAUGzXsOPQhSKihhtYsRiserFgakhN6YaGnt+F87456HUIc/BibpxRBthXWp7Leq8pFy7WQ68Scwba8HxsQSSfy7lNfLjlhwHuDJrA7fSIz4Z1c7iwrUsU+1sDHq7FVA1Uh/VVHOyzSwPYdWxDUgDDYH6AkXoKM1GqE2rBNXEDbBu7pkPTShkmuuz5+3RgWngTTrTKbRy6jmfakHqMUEasZNIpBtr2PdgM7nLVc+wNsBoKz2DElhsuhJhPW/W8/cS7WUwkdlXsL+xp32SR+BQdtXve4ZbrDNtBl1o+6WK7Xo2kZ/IQP5qhdi2gzOuDFwkJSVqKYttqq6UO4R8cyEkmqmOL9E1n24FQUqMItjIEVAmYt0tYzXOCvksjzyao6DKsq4OP4nXGY7QFW+zy0Htuw43kZbBnsrIKO95hPOc0Q4QiRa5QK9r0acakcB1o0SZOc8S+8FVuEAf6RXpHUtRsbrR7GLOZiSE5iJfGDd6BjOpwM+h34ZB14aQdiFkpUhM+gmyFjAe/DA26Sl78OhqUaf4DP2I2Wnft0+UiJoLpUnMZOvAmSAjW5FQd090H6mXCepuVaC0zOEhG4FT5aR6C8ztwzKEgx1FK01DDtZzAxrIsNNxdkaLcN7mpp7LRFKkJJ91ApjvsDAdQpykpM7g4l4POXabMB2yQMywvcJk/5PUDqaHos3Ro0HXFBKYzt86uj38WACQZbgSuVfPs+WezZXQuuYTN76EX+LIozq8iosfrY0DrmFcaUfrn1rcWWRP1FxLvu7jvucSaP9oQZO69/RwLodGpmlsDy/M1t7wD3V02P37W51bzAU9Cu1tomgqlnkVEsobHw07pq6ccmTreNQMHsByDRrsX195JMqrQ/UmZNAld8p2oAhocKVOAypbdX7IAQnA4uGR5fU5QAaFebiM1Lc9xkIXX3b2m6e4FgDTiujJJj+sv75Id33QpX04MLCZK8WwhFNUpCXgMWby2ApEIsnh5wEXqhBzq4P7A802nBYEhG2HahagJAEnLZL1wBL3NwVYUZDVRjbWynkWOP0tMNCm5DH7gwzI5QRRCfC0SlCcyCQ3xVbbgWDo10yFdX1bVqJXP4sGGJRAxqr98cQvCxWgP4MYMuu9FPORoPRmEdJGyesSQCcwLqdHeWS4VltdKK4Bs+BiJFdfxwKOEKTuwwLJS6xGA6jVQhEgqVdjDslI52CsrG8SFmzoCxPaQMtwvK0VNYZ5SWlM4ZoYGKcIXtqgXajltE21E/UEsoQ5ryVKyAoBT9sC8My0YcxIFo24SZ5iSkxFqehaIjW7/bvz3b0Y3vnj87vUnD38/vvVvuH50//boszsnN78+/vRtII7+dW/0MeeeXP/N8SfvPPrPzcf3HsCwqB1fv1daG332hQyTtIg6ZtfBwulOtVTSisuQwzEJ8Y1TBfi2A4sJ2tWrAnPHYxTeRIpBbb1RO9+siloVEyN12a5Ufn869IJk2JYrFROJdFGjLJMiRieqfeE4w021P4PfLx7grHSaf5qijMXjB395/OD2qdphwBIcp6+treQ1+BWeDvPgznuZy+lrs2BeM9NfYuFC2uiEDNqRzSWOU8M2ijrc3K+sanrcJ+z4IMwSmmSFljrmnjqhJ0k1Cb3iFEiPI6Y4HB1MWcyWxyU1kEEc/+PXx3ffy0iF0Q0pWSvgnIBIfDI1GgjTmzsdpb11aae2rnTW2zxPEl5KThp/inA4e3zo0kkjDuRrSm5F8RLsnUud0EyGzaJK64vYmfTnvO8FA1lsUgoJdYZkUnVmacyoPIIna+ZECUo4M6TDHf3g81kK4TrqCSpOP1SJs1Aw0DRb0lNC4WQf3ZA18EzGQjhZ/JgBshrOTnoYJzkUuLBzTVDQ5bYI6L72ZqpThUR+S7btEZdRY3l1RRf3Y+EYgbLO7Yn/UaMP7VOYFmED+gQFXTDp+hELD7KxidQsATwdmNC5veQ+NibImp2E9+TjT8YffjV+/8vj638b/eqvo7fff/zgD8d3PpWnbPzel+N37oRVfbLwC1/43bEElIp44mIp/PQpHAco3167qbgeUwC+KIGoQN9eu5Uyxh0VQCexDPAwdiTrwpRoWpnrKSlXYh8yerGKBBM13rKKsUTYtLwBsZJJ3shzU4BxFcF4pdHJBxQrHiCzV2ElWeFEeV69UEW20O1VraAXQq70hi+ha9JU6M87XheARsQQDzMmRDJaT1dIZMV855tb1UozEZFObPk29nkaygsUwVPeQho0GkWplqIAF0CkFTj8+dOU2DQrtpwqZmr4IGe3YvNH/LMfe2QkUC3wfQmS3PA9QTsYALCOn9WcLiCehKbA9KYEvml4nYwb9SwfxikudL4smxMEXxSmkCWLVIPyh0YSG2/y2CRD4GWenkI8wncBElodENgTlZeedd/3/Jn1J+FEYi2A5VBS1CTksYzYVAnh7WSzIkJU814UlC+WMlD+lXrt1QsenJqL/M8OZtBMlCrc3dOysu0DJiwrLWKXlQsXlSZx95VKWdFWBeLRtDWA3UtntTOzgPyLsfs/AeOfPLwx+vlH49t/kmX7ycNfnvz51vj+3ZMPvx799s7oGqD6+4DYHz345/iPD/nF/dsnH3w1usavQ8mb34zf/bwC42SNHOMnwXsJ778rvIeYArYHML78LHjPX8qB6NnvHd6X5oH3pZfw/iW8/8HgvXhNOg3rBfk0OH//7uitX3xHKK+fDuX1N1OdahrK69rZ0kso/xLK/19Bef1HAOXlc+0fPZKfKD/fC5JXk8f5cWX06tjBbLFPXtREu+UdPLcu7P2iqg265dhhMBd7IxGHJTGQ/u6HJ8qL++xHpl3F9wE+8S8EFv5OJ3qztWO6ewv6JRclFPkrIpg9/JBmg/iUXeGtKbySlKsx5arEoVeMggSbV+T4qrG8IgkgoKatqxk3o0PM5HdYntMkfbLgeyMtOulZIxDLwUACtcZiOcObzCY+AhiZsgDlsftTaCDyResi1mTqQlWN9fnHDZTs9diijq12TWzjrpa3uriQX7a1Un4N42Je1+GvaRX4jQX/NCI0DjWE4MMFJ1GjDUu+jzT+C+biD6VYKQAA</t>
+          <t>SSsAAB+LCAAAAAAAAAPtWu1v28YZ/1cIAQUSYDJJSZYl4cJCL3YiRLINS1mSfilo8mzfTJEaj7StbxmGIdnWFhiytsv6snVot3VYkgLpumzJ+scUkWJ/yr+w5+74KsmJ6GTYOiRQEt7zdnfPPfc8vzsSvXk0sKQD7FLi2Bdy6pKSk7BtOCaxdy/kfG8nr5Zzb2po9cjA1qbu6gPsgbAEWjatHVFyIbfnecOaLB8eHi4dFpccd1cuKIoqX+t2esYeHuh5YlNPtw2ci7TMF2vlNNQ0B13s6abu6ULzQq7day81MTFaQOvqtr6L3aWGT4mNKV21PeIRTJmmi3UPN1vdH4qJaYWl8pKK5Bl6LNnwiWUKuZSkoAdy0C3ukwHWCkpBySuVfEHpKyu1YrGmFpeKhZW3QsVIEHV06vWwe0AMTuh5+mDI1ZUK/F0pFtUikucKga3YARrasMwtfEAoNpvYsmgmj8jBAtYND2adzZkKkhO6gaGzD+Giqw/3+sSzcFb1NcfFBjjqTH2v48MNN/Bff9gBbn+PuN6opY8y27pCsbsxZN7IpqqhlmN7dQu73pUhLCo2Yc2BoXmuj5F8CjNWahFqwDOxfWxqO7pFk0opJrrquPt0qBt4HTaszGwc2pajmxBZHqEeMeJOZxho03WGYBE6bziWuQZWA+E5jMhy2wYXs24bjrMfj24eE/EY4NEAazrQvVB8ho56e87hhm2Nev42NVyyjc1WI5Sey0Ns5wXaTZ96zgBGEZOQoCUopil3u/II/sB+m2aiFjbIQLc2LXAl1WCnpgmo7nvODvGajuUPbBqObIqKrsK8+vgommfURhuwxDZzvWO37VBeOHsuK62w5RxGfc4yuCsS5Do1wkWfZUwLt4AWLuIsh68Lm+UasaAcJFckQU3HRm8PY29uYAgOYplvjRUYrTFa9wfbsMm2Yacd8F4pkmM+gmiFiIdxaQoUjTz/9RWlxn8wjoiNVm3zdLmQiaC7RF+aCrwpEoI5WQ1Lt/eBepV4e+v1cC5zOEh44FT5WR6C/Tu09BEnR15K0lDbNizfxCIttO0dHqJsbGJRT2WjGVIHdrqGdHvUHw0hDVNS8+DhQg4Kc416LpT+nGY4vu25I5Y/kByIvkiH+ts270C3FtbZcfGPfUAcozXfNpqOuXhvpvDOFZt4i4/Q8V2RFBdX4d5j+dGnLcwyDU/9C+sbWeZE3UziAxsPHJsYi3sbnMxGb55hIjTcVQtrYLG/Fpa3oLqL4sf2+sJqLsBFKHeZuqlT6hiEB2uwPcyEvnzKlmnhHd23AKp5UGh3o9w7TUZ1uj8tkyShK64VZkCNAWEKSNgwB0sGQAiG9pYMZ8AIMgDQqz0kJ+UZDjLwqr3b0e1dH5BGlFem6VH+ZVWy7+o2ZdOJgMVUKp4vhMI8JQCPJpLXhs8DQSQvB7hInpJDfTwYOq5udcExZC0IuwA1ASDp6t5e0ILaZmEjdLIcq0Za6ZGFA3+RGC9SYhpswwdpcorIhdhcBOaOZWIaYrPswra0mrpFtl2RVcNSPo8HCxZDxDD/ssllhIvhGsC5C6rvZTxiYDxuBHQesmrIEAHMEqnW2ypVCqVqZRmQDWsjPuMWHjqUeNIWTLAmNfcIIPEmKIInpQasYU2qH+zWpDViw5mNALE3oh4e1KSiInmOVKlKDDNDgeTuC0rUK7WctInWwvrAp9CCuaQpaQHAKbtg3poVjDixgtbSiTVKyAkPdRwDxMZ3fzP567fjW18+fe/ms8e/ndz5Jzw/eXh3/Pm9k9vfHH/2DhDH/3gw/oRxT27+6vjTd5/86/bTB4+gWVSObz6oVMeffyncJCyivr5tYT7ofqNSUYoliOGIhNjCyRx8m77hcdr16xxzR20UnBF5o7nabl7sNHiuioihuihXMjt+jhw/bvbETHlHPFzkMMqEiNYPc1/QTnET5U9jx8EDnJZO8k9TFL54+uhPTx/dPVU7cFiM49RqdTmvwK/wfJhXUNQSk1Or82BeJ1VfIuFC0uiUDNoSxSXyU9vUiqpSVZZXFDWqE2a0EeYJTbMCS319V57SE6SmgF5RCCTbIZNvjj6mXsQW2yXREE6c/O2Xx/ffT0kF3g0oaSswOA6RWGdy2OCm17f6Um/jylZzVeqv9licxLyEnDD+HOGg92jTJYOGb8gfSLllyYmxdy6xQ1MRNo8qrGexMz2ei67jD0WySSjE1DmScdaZpzEn83CeyJlTKSjmzJEOVvTDL+YpBPNoxahYe0OC47rUhXP6XhSFnIFm2YKeEAo6+/iWyIFvpCwEnUXXDBDVsHeSzSjIIcEFlWuKgq72uEP3lbcTlSogsiPZpkNsj2qllWWVn8eCNgJlldnj/6P2AMonN83dBvQpCrqk09UjL9jI2jqS0wQY6VCHyu3E59iIIHJ27N6TTz6dfPT15IOvjm/+ZfyLP4/f+eDpo98d3/tM7LLJ+19N3r0XZPXpxM/Hwk7HAlBK/MbFkNjukxgOkL67cVuyHU8C+CL5PAN9d+NOwhgbKAc6sWWAh9FA0kOYEU0qMz0pMZRoDCm9SEWAiSYrWcVIIihazpAYcSdv5ZkpwLgSZ5xr9/M+xZIDyOw8zCQtHCsvqheoiBK6uaIU1ELAFaNhU9jWacL1Fy1nG4BGyOCXGVMiKa3nK8SyvL+LnY1GvROLiEFsuCZ2WRiKB9SmIUANwytBAS4AR8O32J3TjNgsC4VPiQQmB5c3O3WT3drPv+pISaCm77oCGNnB1X/PHwKYju5nThfgt58JAL0uwG4SUsftdivNh3aCC9UuzWYEzufJKGCJxNSm7KJI4OF15pu4CbzUjSn4I7jeF3DqgMA6yCzdrLqu487NOTEnFOsCFIc0Iscuj2Rk1qWA7Wa8WCEhzHOvCr4XKyn4fq7VPH/JgZ1ymf3Tq29J5wBp2/p5aQt7UEykBpzuaU3adAET1qQuMWvSpctSh9j7Ur0mKSsc8ShKFWD3Ull5Yx6Qf/V9/E9A+mePb41/8vHk7h9ECn/2+Ocnf7wzeXj/5KNvxr++N74BCP8hoPcnj/4++f1j9vDw7smHX49vsOdA8va3k/e+qEM7niPD+7EjX0P9l4X64FPA+QDMSy+C+kqVHwnKi0H9al6FnFg9C9SvLAL1K6+h/muo/1+D+pcut+ZBfE4+Ddo/vD/+2U9fEtarp8N69e1EBZuF9apSrryG9a9h/fcK1qvfU1gv7rX/71H9VMr5j6B6Ob7Oj7Kh08IW9jJ/0RJqd52DM+vC2mdVbdMNywycme2NROSW2EDysx4WKFkHU3ddgETsC4DM3+Gw80Y72+y1Kl4BpLZcMExVV0qVyo5eVcvLO2VcLhmqDlEjjLIXVMzEAHAze72TrRPIEmn1+FXclm7vZrQmHMwV2esq8FQAJ3hij9pojbjUu8YqZfAkKNcjynUBi69pBYF9r4n2da20LAggICc7k1OjDvOLJ74Ac6wOGZCMr7SUMAmljUAYDIcCN2ZdUKh56/gIUG3CAmTr7R9BPRPvgLNYE7sKknykH9rq+duZzcmh8ibw+en4TNqrJiCzs2vz76mI9RID4MjrrCbaNiW7e17WdTWrgANWytV8BZeVfKmwXIKnnUre1EsltbxSLBeNAvvoJTAO1YHgw4ydsJpCqK9b2fXkqQ9itX8D6X7NskkrAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -423,7 +423,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -605,7 +605,7 @@
         <v>41781</v>
       </c>
       <c r="C14" s="5">
-        <v>41781</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="15">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.2234505289774544</v>
+        <v>-0.2234505289774542</v>
       </c>
       <c r="C20" s="2">
         <v>-1.029099213615846</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.733729408587631</v>
+        <v>-1.733729408587632</v>
       </c>
       <c r="C21" s="2">
         <v>-1.226983194463458</v>
@@ -940,4 +940,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>46</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
+          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
+          <SeriesId>310905701</SeriesId>
+          <Code>SR4824985</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>46</EndRow>
+          <EndCol>3</EndCol>
+          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
+          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
+          <SeriesId>310905801</SeriesId>
+          <Code>SR4824938</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BB7586-A0D8-4578-81C0-A4C0B6AC7592}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_146.xlsx
+++ b/Testdata/TC_146.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SSsAAB+LCAAAAAAAAAPtWu1v28YZ/1cIAQUSYDJJSZYl4cJCL3YiRLINS1mSfilo8mzfTJEaj7StbxmGIdnWFhiytsv6snVot3VYkgLpumzJ+scUkWJ/yr+w5+74KsmJ6GTYOiRQEt7zdnfPPfc8vzsSvXk0sKQD7FLi2Bdy6pKSk7BtOCaxdy/kfG8nr5Zzb2po9cjA1qbu6gPsgbAEWjatHVFyIbfnecOaLB8eHi4dFpccd1cuKIoqX+t2esYeHuh5YlNPtw2ci7TMF2vlNNQ0B13s6abu6ULzQq7day81MTFaQOvqtr6L3aWGT4mNKV21PeIRTJmmi3UPN1vdH4qJaYWl8pKK5Bl6LNnwiWUKuZSkoAdy0C3ukwHWCkpBySuVfEHpKyu1YrGmFpeKhZW3QsVIEHV06vWwe0AMTuh5+mDI1ZUK/F0pFtUikucKga3YARrasMwtfEAoNpvYsmgmj8jBAtYND2adzZkKkhO6gaGzD+Giqw/3+sSzcFb1NcfFBjjqTH2v48MNN/Bff9gBbn+PuN6opY8y27pCsbsxZN7IpqqhlmN7dQu73pUhLCo2Yc2BoXmuj5F8CjNWahFqwDOxfWxqO7pFk0opJrrquPt0qBt4HTaszGwc2pajmxBZHqEeMeJOZxho03WGYBE6bziWuQZWA+E5jMhy2wYXs24bjrMfj24eE/EY4NEAazrQvVB8ho56e87hhm2Nev42NVyyjc1WI5Sey0Ns5wXaTZ96zgBGEZOQoCUopil3u/II/sB+m2aiFjbIQLc2LXAl1WCnpgmo7nvODvGajuUPbBqObIqKrsK8+vgommfURhuwxDZzvWO37VBeOHsuK62w5RxGfc4yuCsS5Do1wkWfZUwLt4AWLuIsh68Lm+UasaAcJFckQU3HRm8PY29uYAgOYplvjRUYrTFa9wfbsMm2Yacd8F4pkmM+gmiFiIdxaQoUjTz/9RWlxn8wjoiNVm3zdLmQiaC7RF+aCrwpEoI5WQ1Lt/eBepV4e+v1cC5zOEh44FT5WR6C/Tu09BEnR15K0lDbNizfxCIttO0dHqJsbGJRT2WjGVIHdrqGdHvUHw0hDVNS8+DhQg4Kc416LpT+nGY4vu25I5Y/kByIvkiH+ts270C3FtbZcfGPfUAcozXfNpqOuXhvpvDOFZt4i4/Q8V2RFBdX4d5j+dGnLcwyDU/9C+sbWeZE3UziAxsPHJsYi3sbnMxGb55hIjTcVQtrYLG/Fpa3oLqL4sf2+sJqLsBFKHeZuqlT6hiEB2uwPcyEvnzKlmnhHd23AKp5UGh3o9w7TUZ1uj8tkyShK64VZkCNAWEKSNgwB0sGQAiG9pYMZ8AIMgDQqz0kJ+UZDjLwqr3b0e1dH5BGlFem6VH+ZVWy7+o2ZdOJgMVUKp4vhMI8JQCPJpLXhs8DQSQvB7hInpJDfTwYOq5udcExZC0IuwA1ASDp6t5e0ILaZmEjdLIcq0Za6ZGFA3+RGC9SYhpswwdpcorIhdhcBOaOZWIaYrPswra0mrpFtl2RVcNSPo8HCxZDxDD/ssllhIvhGsC5C6rvZTxiYDxuBHQesmrIEAHMEqnW2ypVCqVqZRmQDWsjPuMWHjqUeNIWTLAmNfcIIPEmKIInpQasYU2qH+zWpDViw5mNALE3oh4e1KSiInmOVKlKDDNDgeTuC0rUK7WctInWwvrAp9CCuaQpaQHAKbtg3poVjDixgtbSiTVKyAkPdRwDxMZ3fzP567fjW18+fe/ms8e/ndz5Jzw/eXh3/Pm9k9vfHH/2DhDH/3gw/oRxT27+6vjTd5/86/bTB4+gWVSObz6oVMeffyncJCyivr5tYT7ofqNSUYoliOGIhNjCyRx8m77hcdr16xxzR20UnBF5o7nabl7sNHiuioihuihXMjt+jhw/bvbETHlHPFzkMMqEiNYPc1/QTnET5U9jx8EDnJZO8k9TFL54+uhPTx/dPVU7cFiM49RqdTmvwK/wfJhXUNQSk1Or82BeJ1VfIuFC0uiUDNoSxSXyU9vUiqpSVZZXFDWqE2a0EeYJTbMCS319V57SE6SmgF5RCCTbIZNvjj6mXsQW2yXREE6c/O2Xx/ffT0kF3g0oaSswOA6RWGdy2OCm17f6Um/jylZzVeqv9licxLyEnDD+HOGg92jTJYOGb8gfSLllyYmxdy6xQ1MRNo8qrGexMz2ei67jD0WySSjE1DmScdaZpzEn83CeyJlTKSjmzJEOVvTDL+YpBPNoxahYe0OC47rUhXP6XhSFnIFm2YKeEAo6+/iWyIFvpCwEnUXXDBDVsHeSzSjIIcEFlWuKgq72uEP3lbcTlSogsiPZpkNsj2qllWWVn8eCNgJlldnj/6P2AMonN83dBvQpCrqk09UjL9jI2jqS0wQY6VCHyu3E59iIIHJ27N6TTz6dfPT15IOvjm/+ZfyLP4/f+eDpo98d3/tM7LLJ+19N3r0XZPXpxM/Hwk7HAlBK/MbFkNjukxgOkL67cVuyHU8C+CL5PAN9d+NOwhgbKAc6sWWAh9FA0kOYEU0qMz0pMZRoDCm9SEWAiSYrWcVIIihazpAYcSdv5ZkpwLgSZ5xr9/M+xZIDyOw8zCQtHCsvqheoiBK6uaIU1ELAFaNhU9jWacL1Fy1nG4BGyOCXGVMiKa3nK8SyvL+LnY1GvROLiEFsuCZ2WRiKB9SmIUANwytBAS4AR8O32J3TjNgsC4VPiQQmB5c3O3WT3drPv+pISaCm77oCGNnB1X/PHwKYju5nThfgt58JAL0uwG4SUsftdivNh3aCC9UuzWYEzufJKGCJxNSm7KJI4OF15pu4CbzUjSn4I7jeF3DqgMA6yCzdrLqu487NOTEnFOsCFIc0Iscuj2Rk1qWA7Wa8WCEhzHOvCr4XKyn4fq7VPH/JgZ1ymf3Tq29J5wBp2/p5aQt7UEykBpzuaU3adAET1qQuMWvSpctSh9j7Ur0mKSsc8ShKFWD3Ull5Yx6Qf/V9/E9A+mePb41/8vHk7h9ECn/2+Ocnf7wzeXj/5KNvxr++N74BCP8hoPcnj/4++f1j9vDw7smHX49vsOdA8va3k/e+qEM7niPD+7EjX0P9l4X64FPA+QDMSy+C+kqVHwnKi0H9al6FnFg9C9SvLAL1K6+h/muo/1+D+pcut+ZBfE4+Ddo/vD/+2U9fEtarp8N69e1EBZuF9apSrryG9a9h/fcK1qvfU1gv7rX/71H9VMr5j6B6Ob7Oj7Kh08IW9jJ/0RJqd52DM+vC2mdVbdMNywycme2NROSW2EDysx4WKFkHU3ddgETsC4DM3+Gw80Y72+y1Kl4BpLZcMExVV0qVyo5eVcvLO2VcLhmqDlEjjLIXVMzEAHAze72TrRPIEmn1+FXclm7vZrQmHMwV2esq8FQAJ3hij9pojbjUu8YqZfAkKNcjynUBi69pBYF9r4n2da20LAggICc7k1OjDvOLJ74Ac6wOGZCMr7SUMAmljUAYDIcCN2ZdUKh56/gIUG3CAmTr7R9BPRPvgLNYE7sKknykH9rq+duZzcmh8ibw+en4TNqrJiCzs2vz76mI9RID4MjrrCbaNiW7e17WdTWrgANWytV8BZeVfKmwXIKnnUre1EsltbxSLBeNAvvoJTAO1YHgw4ydsJpCqK9b2fXkqQ9itX8D6X7NskkrAAA=</t>
+          <t>WCkAAB+LCAAAAAAAAAPtWltvG8cV/isLAgYSINTukpJFEeMNeJFswqQkiHRt5yVY7o7EqZa77M6sJL65KAK7bRKgcJPUzaVNkbRNUdsBnKZu7ebHBCYtPfkv9MzMXknKJh0HaQMbhLxzbnPmzJlzvr2g14/6jnKAfUo891xOX9JyCnYtzybu3rlcwHbz+tnc6wZaP7Kws236Zh8zEFZAy6XlI0rO5XqMDcqqenh4uHRYXPL8PbWgabp6pdVsWz3cN/PEpcx0LZyLtexna+UMVLP7LcxM22Sm1DyXa7QbSzVMrDrQWqZr7mF/qRpQ4mJK111GGMGUa/rYZLhWb/1ELswoLJ1d0pE6RU8kqwFxbCmXkZT0UA6mxR3Sx0ZB00t5bS2vFTu6Xi5oZW11qVDU3ogUY0HUNClrY/+AWILQZmZ/INS1Na2o67DoVaTOFAJbSQAMtOXYO/iAUGzXsOPQhSKihhtYsRiserFgakhN6YaGnt+F87456HUIc/BibpxRBthXWp7Leq8pFy7WQ68Scwba8HxsQSSfy7lNfLjlhwHuDJrA7fSIz4Z1c7iwrUsU+1sDHq7FVA1Uh/VVHOyzSwPYdWxDUgDDYH6AkXoKM1GqE2rBNXEDbBu7pkPTShkmuuz5+3RgWngTTrTKbRy6jmfakHqMUEasZNIpBtr2PdgM7nLVc+wNsBoKz2DElhsuhJhPW/W8/cS7WUwkdlXsL+xp32SR+BQdtXve4ZbrDNtBl1o+6WK7Xo2kZ/IQP5qhdi2gzOuDFwkJSVqKYttqq6UO4R8cyEkmqmOL9E1n24FQUqMItjIEVAmYt0tYzXOCvksjzyao6DKsq4OP4nXGY7QFW+zy0Htuw43kZbBnsrIKO95hPOc0Q4QiRa5QK9r0acakcB1o0SZOc8S+8FVuEAf6RXpHUtRsbrR7GLOZiSE5iJfGDd6BjOpwM+h34ZB14aQdiFkpUhM+gmyFjAe/DA26Sl78OhqUaf4DP2I2Wnft0+UiJoLpUnMZOvAmSAjW5FQd090H6mXCepuVaC0zOEhG4FT5aR6C8ztwzKEgx1FK01DDtZzAxrIsNNxdkaLcN7mpp7LRFKkJJ91ApjvsDAdQpykpM7g4l4POXabMB2yQMywvcJk/5PUDqaHos3Ro0HXFBKYzt86uj38WACQZbgSuVfPs+WezZXQuuYTN76EX+LIozq8iosfrY0DrmFcaUfrn1rcWWRP1FxLvu7jvucSaP9oQZO69/RwLodGpmlsDy/M1t7wD3V02P37W51bzAU9Cu1tomgqlnkVEsobHw07pq6ccmTreNQMHsByDRrsX195JMqrQ/UmZNAld8p2oAhocKVOAypbdX7IAQnA4uGR5fU5QAaFebiM1Lc9xkIXX3b2m6e4FgDTiujJJj+sv75Id33QpX04MLCZK8WwhFNUpCXgMWby2ApEIsnh5wEXqhBzq4P7A802nBYEhG2HahagJAEnLZL1wBL3NwVYUZDVRjbWynkWOP0tMNCm5DH7gwzI5QRRCfC0SlCcyCQ3xVbbgWDo10yFdX1bVqJXP4sGGJRAxqr98cQvCxWgP4MYMuu9FPORoPRmEdJGyesSQCcwLqdHeWS4VltdKK4Bs+BiJFdfxwKOEKTuwwLJS6xGA6jVQhEgqVdjDslI52CsrG8SFmzoCxPaQMtwvK0VNYZ5SWlM4ZoYGKcIXtqgXajltE21E/UEsoQ5ryVKyAoBT9sC8My0YcxIFo24SZ5iSkxFqehaIjW7/bvz3b0Y3vnj87vUnD38/vvVvuH50//boszsnN78+/vRtII7+dW/0MeeeXP/N8SfvPPrPzcf3HsCwqB1fv1daG332hQyTtIg6ZtfBwulOtVTSisuQwzEJ8Y1TBfi2A4sJ2tWrAnPHYxTeRIpBbb1RO9+siloVEyN12a5Ufn869IJk2JYrFROJdFGjLJMiRieqfeE4w021P4PfLx7grHSaf5qijMXjB395/OD2qdphwBIcp6+treQ1+BWeDvPgznuZy+lrs2BeM9NfYuFC2uiEDNqRzSWOU8M2ijrc3K+sanrcJ+z4IMwSmmSFljrmnjqhJ0k1Cb3iFEiPI6Y4HB1MWcyWxyU1kEEc/+PXx3ffy0iF0Q0pWSvgnIBIfDI1GgjTmzsdpb11aae2rnTW2zxPEl5KThp/inA4e3zo0kkjDuRrSm5F8RLsnUud0EyGzaJK64vYmfTnvO8FA1lsUgoJdYZkUnVmacyoPIIna+ZECUo4M6TDHf3g81kK4TrqCSpOP1SJs1Aw0DRb0lNC4WQf3ZA18EzGQjhZ/JgBshrOTnoYJzkUuLBzTVDQ5bYI6L72ZqpThUR+S7btEZdRY3l1RRf3Y+EYgbLO7Yn/UaMP7VOYFmED+gQFXTDp+hELD7KxidQsATwdmNC5veQ+NibImp2E9+TjT8YffjV+/8vj638b/eqvo7fff/zgD8d3PpWnbPzel+N37oRVfbLwC1/43bEElIp44mIp/PQpHAco3167qbgeUwC+KIGoQN9eu5Uyxh0VQCexDPAwdiTrwpRoWpnrKSlXYh8yerGKBBM13rKKsUTYtLwBsZJJ3shzU4BxFcF4pdHJBxQrHiCzV2ElWeFEeV69UEW20O1VraAXQq70hi+ha9JU6M87XheARsQQDzMmRDJaT1dIZMV855tb1UozEZFObPk29nkaygsUwVPeQho0GkWplqIAF0CkFTj8+dOU2DQrtpwqZmr4IGe3YvNH/LMfe2QkUC3wfQmS3PA9QTsYALCOn9WcLiCehKbA9KYEvml4nYwb9SwfxikudL4smxMEXxSmkCWLVIPyh0YSG2/y2CRD4GWenkI8wncBElodENgTlZeedd/3/Jn1J+FEYi2A5VBS1CTksYzYVAnh7WSzIkJU814UlC+WMlD+lXrt1QsenJqL/M8OZtBMlCrc3dOysu0DJiwrLWKXlQsXlSZx95VKWdFWBeLRtDWA3UtntTOzgPyLsfs/AeOfPLwx+vlH49t/kmX7ycNfnvz51vj+3ZMPvx799s7oGqD6+4DYHz345/iPD/nF/dsnH3w1usavQ8mb34zf/bwC42SNHOMnwXsJ778rvIeYArYHML78LHjPX8qB6NnvHd6X5oH3pZfw/iW8/8HgvXhNOg3rBfk0OH//7uitX3xHKK+fDuX1N1OdahrK69rZ0kso/xLK/19Bef1HAOXlc+0fPZKfKD/fC5JXk8f5cWX06tjBbLFPXtREu+UdPLcu7P2iqg265dhhMBd7IxGHJTGQ/u6HJ8qL++xHpl3F9wE+8S8EFv5OJ3qztWO6ewv6JRclFPkrIpg9/JBmg/iUXeGtKbySlKsx5arEoVeMggSbV+T4qrG8IgkgoKatqxk3o0PM5HdYntMkfbLgeyMtOulZIxDLwUACtcZiOcObzCY+AhiZsgDlsftTaCDyResi1mTqQlWN9fnHDZTs9diijq12TWzjrpa3uriQX7a1Un4N42Je1+GvaRX4jQX/NCI0DjWE4MMFJ1GjDUu+jzT+C+biD6VYKQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -423,7 +423,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -605,7 +605,7 @@
         <v>41781</v>
       </c>
       <c r="C14" s="5">
-        <v>43778</v>
+        <v>41781</v>
       </c>
     </row>
     <row r="15">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.2234505289774542</v>
+        <v>-0.2234505289774544</v>
       </c>
       <c r="C20" s="2">
         <v>-1.029099213615846</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.733729408587632</v>
+        <v>-1.733729408587631</v>
       </c>
       <c r="C21" s="2">
         <v>-1.226983194463458</v>
@@ -940,48 +940,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>46</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
-          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
-          <SeriesId>310905701</SeriesId>
-          <Code>SR4824985</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>46</EndRow>
-          <EndCol>3</EndCol>
-          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
-          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
-          <SeriesId>310905801</SeriesId>
-          <Code>SR4824938</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BB7586-A0D8-4578-81C0-A4C0B6AC7592}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>